--- a/public/templates/product_template.xlsx
+++ b/public/templates/product_template.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025\Project\Frontant\admin\public\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36C54A7-24C7-4E0A-81EA-90E78C6C6168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,9 +24,140 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="42">
+  <si>
+    <t xml:space="preserve">    Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Slug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Qty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Product Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Min Qty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Tax Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Discount Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Parent Grp</t>
+  </si>
+  <si>
+    <t>Burger</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>pcs</t>
+  </si>
+  <si>
+    <t>burger</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>pizza</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>SKU-20250625-RLKY</t>
+  </si>
+  <si>
+    <t>ram ram ji</t>
+  </si>
+  <si>
+    <t>Veg</t>
+  </si>
+  <si>
+    <t>Exclusive</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>jio</t>
+  </si>
+  <si>
+    <t>SKU-20250610-7X6F</t>
+  </si>
+  <si>
+    <t>ram&amp;nbsp;</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Raja Kumar</t>
+  </si>
+  <si>
+    <t>Raja Singh</t>
+  </si>
+  <si>
+    <t>raja</t>
+  </si>
+  <si>
+    <t>Matar</t>
+  </si>
+  <si>
+    <t>matar</t>
+  </si>
+  <si>
+    <t>SKU-20250612-4N85</t>
+  </si>
+  <si>
+    <t>Ram Ram Ji</t>
+  </si>
+  <si>
+    <t>FG</t>
+  </si>
+  <si>
+    <t>fg</t>
+  </si>
+  <si>
+    <t>Print Name</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +165,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,12 +195,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +539,1502 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AJ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2">
+        <v>90</v>
+      </c>
+      <c r="K2">
+        <v>220</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>45817.685549155096</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>45838.748744328703</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>50</v>
+      </c>
+      <c r="K3">
+        <v>120</v>
+      </c>
+      <c r="L3">
+        <v>20</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>45818.416875925926</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>45829.538161724537</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG3">
+        <v>2</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>110</v>
+      </c>
+      <c r="K4">
+        <v>120</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>45820.602989618055</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>16</v>
+      </c>
+      <c r="S17" t="s">
+        <v>16</v>
+      </c>
+      <c r="T17" t="s">
+        <v>16</v>
+      </c>
+      <c r="U17" t="s">
+        <v>16</v>
+      </c>
+      <c r="V17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W17" t="s">
+        <v>16</v>
+      </c>
+      <c r="X17" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB17" s="6">
+        <v>45815.421196840274</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>16</v>
+      </c>
+      <c r="S18" t="s">
+        <v>16</v>
+      </c>
+      <c r="T18" t="s">
+        <v>16</v>
+      </c>
+      <c r="U18" t="s">
+        <v>16</v>
+      </c>
+      <c r="V18" t="s">
+        <v>16</v>
+      </c>
+      <c r="W18" t="s">
+        <v>16</v>
+      </c>
+      <c r="X18" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB18" s="6">
+        <v>45815.42131982639</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD18" s="6">
+        <v>45836.552754479169</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="s">
+        <v>16</v>
+      </c>
+      <c r="S19" t="s">
+        <v>16</v>
+      </c>
+      <c r="T19" t="s">
+        <v>16</v>
+      </c>
+      <c r="U19" t="s">
+        <v>16</v>
+      </c>
+      <c r="V19" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" t="s">
+        <v>16</v>
+      </c>
+      <c r="X19" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB19" s="6">
+        <v>45815.421460844904</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD19" s="6">
+        <v>45834.662682141206</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="s">
+        <v>16</v>
+      </c>
+      <c r="S20" t="s">
+        <v>16</v>
+      </c>
+      <c r="T20" t="s">
+        <v>16</v>
+      </c>
+      <c r="U20" t="s">
+        <v>16</v>
+      </c>
+      <c r="V20" t="s">
+        <v>16</v>
+      </c>
+      <c r="W20" t="s">
+        <v>16</v>
+      </c>
+      <c r="X20" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB20" s="6">
+        <v>45815.421719178237</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD20" s="6">
+        <v>45833.525005520831</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>22</v>
+      </c>
+      <c r="R21" t="s">
+        <v>22</v>
+      </c>
+      <c r="S21" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" t="s">
+        <v>16</v>
+      </c>
+      <c r="U21" t="s">
+        <v>16</v>
+      </c>
+      <c r="V21" t="s">
+        <v>16</v>
+      </c>
+      <c r="W21" t="s">
+        <v>16</v>
+      </c>
+      <c r="X21" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB21" s="6">
+        <v>45817.464092476854</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22">
+        <v>90</v>
+      </c>
+      <c r="M22">
+        <v>220</v>
+      </c>
+      <c r="N22">
+        <v>5</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" t="s">
+        <v>23</v>
+      </c>
+      <c r="S22" t="s">
+        <v>16</v>
+      </c>
+      <c r="T22" t="s">
+        <v>16</v>
+      </c>
+      <c r="U22" t="s">
+        <v>16</v>
+      </c>
+      <c r="V22" t="s">
+        <v>16</v>
+      </c>
+      <c r="W22" t="s">
+        <v>16</v>
+      </c>
+      <c r="X22" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB22" s="6">
+        <v>45817.685549155096</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD22" s="6">
+        <v>45838.748744328703</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG22">
+        <v>1</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23">
+        <v>50</v>
+      </c>
+      <c r="M23">
+        <v>120</v>
+      </c>
+      <c r="N23">
+        <v>20</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>28</v>
+      </c>
+      <c r="R23" t="s">
+        <v>29</v>
+      </c>
+      <c r="S23" t="s">
+        <v>16</v>
+      </c>
+      <c r="T23" t="s">
+        <v>16</v>
+      </c>
+      <c r="U23" t="s">
+        <v>16</v>
+      </c>
+      <c r="V23" t="s">
+        <v>16</v>
+      </c>
+      <c r="W23" t="s">
+        <v>16</v>
+      </c>
+      <c r="X23" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB23" s="6">
+        <v>45818.416875925926</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD23" s="6">
+        <v>45829.538161724537</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI23">
+        <v>2</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="s">
+        <v>16</v>
+      </c>
+      <c r="S24" t="s">
+        <v>16</v>
+      </c>
+      <c r="T24" t="s">
+        <v>16</v>
+      </c>
+      <c r="U24" t="s">
+        <v>16</v>
+      </c>
+      <c r="V24" t="s">
+        <v>16</v>
+      </c>
+      <c r="W24" t="s">
+        <v>16</v>
+      </c>
+      <c r="X24" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB24" s="6">
+        <v>45819.475559027778</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="s">
+        <v>16</v>
+      </c>
+      <c r="S25" t="s">
+        <v>16</v>
+      </c>
+      <c r="T25" t="s">
+        <v>16</v>
+      </c>
+      <c r="U25" t="s">
+        <v>16</v>
+      </c>
+      <c r="V25" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" t="s">
+        <v>16</v>
+      </c>
+      <c r="X25" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="6">
+        <v>45819.478959918983</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="s">
+        <v>16</v>
+      </c>
+      <c r="S26" t="s">
+        <v>16</v>
+      </c>
+      <c r="T26" t="s">
+        <v>16</v>
+      </c>
+      <c r="U26" t="s">
+        <v>16</v>
+      </c>
+      <c r="V26" t="s">
+        <v>16</v>
+      </c>
+      <c r="W26" t="s">
+        <v>16</v>
+      </c>
+      <c r="X26" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="6">
+        <v>45819.49072415509</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27">
+        <v>110</v>
+      </c>
+      <c r="M27">
+        <v>120</v>
+      </c>
+      <c r="N27">
+        <v>5</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
+      <c r="P27" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>36</v>
+      </c>
+      <c r="R27" t="s">
+        <v>37</v>
+      </c>
+      <c r="S27" t="s">
+        <v>16</v>
+      </c>
+      <c r="T27" t="s">
+        <v>16</v>
+      </c>
+      <c r="U27" t="s">
+        <v>16</v>
+      </c>
+      <c r="V27" t="s">
+        <v>16</v>
+      </c>
+      <c r="W27" t="s">
+        <v>16</v>
+      </c>
+      <c r="X27" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB27" s="6">
+        <v>45820.602989618055</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG27">
+        <v>1</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI27">
+        <v>1</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="s">
+        <v>16</v>
+      </c>
+      <c r="S28" t="s">
+        <v>16</v>
+      </c>
+      <c r="T28" t="s">
+        <v>16</v>
+      </c>
+      <c r="U28" t="s">
+        <v>16</v>
+      </c>
+      <c r="V28" t="s">
+        <v>16</v>
+      </c>
+      <c r="W28" t="s">
+        <v>16</v>
+      </c>
+      <c r="X28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB28" s="6">
+        <v>45832.477132557869</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>